--- a/sample_export.xlsx
+++ b/sample_export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kahnmi_m4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kahnmi_m4/Documents/git/Quicken_Sankey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695E4403-4DB7-D64B-9825-82238AACA7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25078D23-5E66-4F40-BA27-57F8D9CD64A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="780" windowWidth="33340" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="780" windowWidth="33320" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -33,43 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Account</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Category</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="47">
   <si>
     <t>IGNORE</t>
   </si>
@@ -77,49 +41,147 @@
     <t>Account 1</t>
   </si>
   <si>
-    <t>Account 2</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>L1:L1L2:L1L2Cat1</t>
-  </si>
-  <si>
-    <t>L1:L1L2:L1L2Cat2</t>
-  </si>
-  <si>
-    <t>L1:L1L2:L1L2Cat3</t>
-  </si>
-  <si>
-    <t>L2:L1</t>
-  </si>
-  <si>
-    <t>L2:L2L2:L2L2C4</t>
-  </si>
-  <si>
-    <t>L2:L2L3:L2L3C5</t>
-  </si>
-  <si>
-    <t>L3:L3L6</t>
-  </si>
-  <si>
-    <t>L2:L2L1:L2L1C4</t>
+    <t>Home:Groceries</t>
+  </si>
+  <si>
+    <t>Home:Restaurants</t>
+  </si>
+  <si>
+    <t>Home:Groceries:Mom</t>
+  </si>
+  <si>
+    <t>Home:Auto:Auto Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Life Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Vision Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Dental Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Medical Insurance</t>
+  </si>
+  <si>
+    <t>Taxes: Property Taxes</t>
+  </si>
+  <si>
+    <t>Taxes:City Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: SSI Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: Medicare Taxes</t>
+  </si>
+  <si>
+    <t>Insurance: Long Term Care</t>
+  </si>
+  <si>
+    <t>Home:Auto:Repairs</t>
+  </si>
+  <si>
+    <t>Personal:Mobile phone</t>
+  </si>
+  <si>
+    <t>Home:Utilities (Elec/gas)</t>
+  </si>
+  <si>
+    <t>Personal:Entertainment</t>
+  </si>
+  <si>
+    <t>Personal:Gifts</t>
+  </si>
+  <si>
+    <t>Personal:Charity/Donations</t>
+  </si>
+  <si>
+    <t>Personal:Gym</t>
+  </si>
+  <si>
+    <t>Personal:Medical:Doctor</t>
+  </si>
+  <si>
+    <t>Personal:Medical:Pharmacy</t>
+  </si>
+  <si>
+    <t>Personal:Shopping</t>
+  </si>
+  <si>
+    <t>Home:Internet/Cable/Netflix</t>
+  </si>
+  <si>
+    <t>Personal:Travel</t>
+  </si>
+  <si>
+    <t>Account2</t>
+  </si>
+  <si>
+    <t>Account 4</t>
+  </si>
+  <si>
+    <t>Account 3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Non-work:Joe</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Work:Joe</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Non-work:Jane</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Work:Jane</t>
+  </si>
+  <si>
+    <t>Home:Home Repairs</t>
+  </si>
+  <si>
+    <t>Home:Auto:Car Registration</t>
+  </si>
+  <si>
+    <t>Home:Home Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Boat Insurance</t>
+  </si>
+  <si>
+    <t>Home:Auto:Gasoline</t>
+  </si>
+  <si>
+    <t>Taxes: Federal Taxes:Estimated Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: State Taxes:Estimated Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: Federal Taxes:Withheld</t>
+  </si>
+  <si>
+    <t>Taxes: State Taxes Withheld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -454,405 +516,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E43"/>
+  <dimension ref="B1:BA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="132" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:53" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>45713</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2">
         <v>-1500</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
-        <v>45781</v>
+        <v>45659</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>45969</v>
+        <v>45660</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-574</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>45969</v>
+        <v>45661</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>-8090.0000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
+        <v>45662</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>45663</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>-337</v>
+      </c>
+    </row>
+    <row r="8" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>45665</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>45666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>-293</v>
+      </c>
+    </row>
+    <row r="11" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>-293</v>
+      </c>
+    </row>
+    <row r="12" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>-293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>45669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
         <v>45670</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>-5200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>45874</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-2407</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>45918</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>-4579</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>45678</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>-5281</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>45723</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>-5415</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>45749</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>-3810</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>45753</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>-4513</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>45762</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>-3614</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>45780</v>
-      </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>-4014</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="15" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>45972</v>
+        <v>45671</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>-4567</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>45659</v>
+        <v>45672</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>-163</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>45664</v>
+        <v>45673</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>-227.99999999999997</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
       <c r="E18">
-        <v>-163</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
       <c r="E19">
-        <v>-227.99999999999997</v>
+        <v>-293</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>45674</v>
+        <v>45676</v>
       </c>
       <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
       <c r="E20">
-        <v>-227.99999999999997</v>
+        <v>-293</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>45695</v>
+        <v>45677</v>
       </c>
       <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
       <c r="E21">
-        <v>-260</v>
+        <v>-293</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>45702</v>
+        <v>45678</v>
       </c>
       <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
       <c r="E22">
-        <v>-65</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>45705</v>
+        <v>45679</v>
       </c>
       <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
       <c r="E23">
-        <v>-98</v>
+        <v>-325</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>45709</v>
+        <v>45680</v>
       </c>
       <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
       <c r="E24">
-        <v>-163</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>45716</v>
+        <v>45681</v>
       </c>
       <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
       <c r="E25">
-        <v>-358</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>45723</v>
+        <v>45682</v>
       </c>
       <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
       <c r="E26">
-        <v>-227.99999999999997</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>45730</v>
+        <v>45683</v>
       </c>
       <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
       <c r="E27">
-        <v>-130</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>45733</v>
+        <v>45684</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>-293</v>
@@ -860,212 +970,800 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>45737</v>
+        <v>45685</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>-293</v>
+        <v>-5281</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>45744</v>
+        <v>45686</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E30">
-        <v>-293</v>
+        <v>-5415</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>45758</v>
+        <v>45687</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>-195</v>
+        <v>-3810</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>45769</v>
+        <v>45688</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>-325</v>
+        <v>-4513</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>45771</v>
+        <v>45689</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>-209</v>
+        <v>-251</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>45773</v>
+        <v>45690</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>-130</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>45773</v>
+        <v>45691</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>-209</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>45777</v>
+        <v>45692</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E36">
-        <v>-202</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <v>45779</v>
+        <v>45693</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E37">
-        <v>-293</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>45948</v>
+        <v>45694</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>-104</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <v>45955</v>
+        <v>45695</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E39">
-        <v>-130</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <v>45958</v>
+        <v>45696</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>-98</v>
+        <v>-1250</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <v>45961</v>
+        <v>45697</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>-195</v>
+        <v>-2200</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <v>45968</v>
+        <v>45698</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>-260</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <v>45975</v>
+        <v>45699</v>
       </c>
       <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>-2210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>45700</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>-6210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>45701</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>-1423</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>45702</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>-2240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>45703</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>45704</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>-1245</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>45705</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>-850</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>45706</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>45707</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>-3812</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>45708</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>45709</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>45710</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>45711</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>45712</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>45713</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>-892</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>45714</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>45715</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>45716</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>-1824</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>45717</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>45718</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>45719</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>45720</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>-875</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>45721</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65">
+        <v>-2680</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>45722</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66">
+        <v>-2111</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>45725</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>-6723</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>45726</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>-7211</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>45723</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>-6200</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>45724</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>45723</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>-8200</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>45724</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>45661</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>-469</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>45662</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>-244</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>45663</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>-337</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>45665</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>45666</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>-293</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>-293</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>-293</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>45669</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
         <v>5</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43">
+      <c r="E81">
         <v>-195</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>45670</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>45672</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>45673</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>-209</v>
       </c>
     </row>
   </sheetData>

--- a/sample_export.xlsx
+++ b/sample_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kahnmi_m4/Documents/git/Quicken_Sankey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3950B8DC-8BE4-AB47-B8BF-82933B020BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C3968-77D2-6346-AE5B-8CBA63B7DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1280" windowWidth="33320" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="780" windowWidth="33320" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="54">
   <si>
     <t>IGNORE</t>
   </si>
@@ -41,147 +41,193 @@
     <t>Account 1</t>
   </si>
   <si>
+    <t>Home:Groceries</t>
+  </si>
+  <si>
+    <t>Home:Restaurants</t>
+  </si>
+  <si>
+    <t>Home:Groceries:Mom</t>
+  </si>
+  <si>
+    <t>Home:Auto:Auto Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Life Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Vision Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Dental Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Medical Insurance</t>
+  </si>
+  <si>
+    <t>Taxes: Property Taxes</t>
+  </si>
+  <si>
+    <t>Taxes:City Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: SSI Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: Medicare Taxes</t>
+  </si>
+  <si>
+    <t>Insurance: Long Term Care</t>
+  </si>
+  <si>
+    <t>Home:Auto:Repairs</t>
+  </si>
+  <si>
+    <t>Personal:Mobile phone</t>
+  </si>
+  <si>
+    <t>Home:Utilities (Elec/gas)</t>
+  </si>
+  <si>
+    <t>Personal:Entertainment</t>
+  </si>
+  <si>
+    <t>Personal:Gifts</t>
+  </si>
+  <si>
+    <t>Personal:Charity/Donations</t>
+  </si>
+  <si>
+    <t>Personal:Gym</t>
+  </si>
+  <si>
+    <t>Personal:Medical:Doctor</t>
+  </si>
+  <si>
+    <t>Personal:Medical:Pharmacy</t>
+  </si>
+  <si>
+    <t>Personal:Shopping</t>
+  </si>
+  <si>
+    <t>Home:Internet/Cable/Netflix</t>
+  </si>
+  <si>
+    <t>Personal:Travel</t>
+  </si>
+  <si>
+    <t>Account2</t>
+  </si>
+  <si>
+    <t>Account 4</t>
+  </si>
+  <si>
+    <t>Account 3</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Non-work:Joe</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Work:Joe</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Non-work:Jane</t>
+  </si>
+  <si>
+    <t>Personal:Clothing:Work:Jane</t>
+  </si>
+  <si>
+    <t>Home:Home Repairs</t>
+  </si>
+  <si>
+    <t>Home:Auto:Car Registration</t>
+  </si>
+  <si>
+    <t>Home:Home Insurance</t>
+  </si>
+  <si>
+    <t>Insurance: Boat Insurance</t>
+  </si>
+  <si>
+    <t>Home:Auto:Gasoline</t>
+  </si>
+  <si>
+    <t>Taxes: Federal Taxes:Estimated Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: State Taxes:Estimated Taxes</t>
+  </si>
+  <si>
+    <t>Taxes: Federal Taxes:Withheld</t>
+  </si>
+  <si>
+    <t>Taxes: State Taxes Withheld</t>
+  </si>
+  <si>
+    <t>Sankey_Export - All Dates</t>
+  </si>
+  <si>
+    <t>12/31/2015 through 1/4/2026 (in U.S. Dollars)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Account</t>
+    </r>
+  </si>
+  <si>
+    <t>12/31/2015 - 1/4/2026</t>
+  </si>
+  <si>
+    <t>TOTAL INFLOWS</t>
+  </si>
+  <si>
+    <t>TOTAL OUTFLOWS</t>
+  </si>
+  <si>
+    <t>NET TOTAL</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>Home:Groceries</t>
-  </si>
-  <si>
-    <t>Home:Restaurants</t>
-  </si>
-  <si>
-    <t>Home:Groceries:Mom</t>
-  </si>
-  <si>
-    <t>Home:Auto:Auto Insurance</t>
-  </si>
-  <si>
-    <t>Insurance: Life Insurance</t>
-  </si>
-  <si>
-    <t>Insurance: Vision Insurance</t>
-  </si>
-  <si>
-    <t>Insurance: Dental Insurance</t>
-  </si>
-  <si>
-    <t>Insurance: Medical Insurance</t>
-  </si>
-  <si>
-    <t>Taxes: Property Taxes</t>
-  </si>
-  <si>
-    <t>Taxes:City Taxes</t>
-  </si>
-  <si>
-    <t>Taxes: SSI Taxes</t>
-  </si>
-  <si>
-    <t>Taxes: Medicare Taxes</t>
-  </si>
-  <si>
-    <t>Insurance: Long Term Care</t>
-  </si>
-  <si>
-    <t>Home:Auto:Repairs</t>
-  </si>
-  <si>
-    <t>Personal:Mobile phone</t>
-  </si>
-  <si>
-    <t>Home:Utilities (Elec/gas)</t>
-  </si>
-  <si>
-    <t>Personal:Entertainment</t>
-  </si>
-  <si>
-    <t>Personal:Gifts</t>
-  </si>
-  <si>
-    <t>Personal:Charity/Donations</t>
-  </si>
-  <si>
-    <t>Personal:Gym</t>
-  </si>
-  <si>
-    <t>Personal:Medical:Doctor</t>
-  </si>
-  <si>
-    <t>Personal:Medical:Pharmacy</t>
-  </si>
-  <si>
-    <t>Personal:Shopping</t>
-  </si>
-  <si>
-    <t>Home:Internet/Cable/Netflix</t>
-  </si>
-  <si>
-    <t>Personal:Travel</t>
-  </si>
-  <si>
-    <t>Account2</t>
-  </si>
-  <si>
-    <t>Account 4</t>
-  </si>
-  <si>
-    <t>Account 3</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Personal:Clothing:Non-work:Joe</t>
-  </si>
-  <si>
-    <t>Personal:Clothing:Work:Joe</t>
-  </si>
-  <si>
-    <t>Personal:Clothing:Non-work:Jane</t>
-  </si>
-  <si>
-    <t>Personal:Clothing:Work:Jane</t>
-  </si>
-  <si>
-    <t>Home:Home Repairs</t>
-  </si>
-  <si>
-    <t>Home:Auto:Car Registration</t>
-  </si>
-  <si>
-    <t>Home:Home Insurance</t>
-  </si>
-  <si>
-    <t>Insurance: Boat Insurance</t>
-  </si>
-  <si>
-    <t>Home:Auto:Gasoline</t>
-  </si>
-  <si>
-    <t>Taxes: Federal Taxes:Estimated Taxes</t>
-  </si>
-  <si>
-    <t>Taxes: State Taxes:Estimated Taxes</t>
-  </si>
-  <si>
-    <t>Taxes: Federal Taxes:Withheld</t>
-  </si>
-  <si>
-    <t>Taxes: State Taxes Withheld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -208,13 +254,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AU253"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -533,406 +580,330 @@
     <col min="7" max="7" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-      <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-      <c r="AO1"/>
-      <c r="AP1"/>
-      <c r="AQ1"/>
-      <c r="AR1"/>
-      <c r="AS1"/>
-      <c r="AT1"/>
-      <c r="AU1"/>
-    </row>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3"/>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>45658</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>-1534</v>
       </c>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>45659</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>-2239</v>
       </c>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
         <v>45660</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>-585</v>
       </c>
     </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>45661</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>-273</v>
       </c>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>45662</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>-196</v>
       </c>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>45663</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>-358</v>
       </c>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
         <v>45664</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>-95</v>
       </c>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>45665</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>-177</v>
       </c>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
         <v>45666</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>-311</v>
       </c>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
         <v>45667</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>-316</v>
       </c>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
         <v>45668</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>-309</v>
-      </c>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>45669</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>-211</v>
-      </c>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>45670</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>-371</v>
-      </c>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>45671</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>-253</v>
-      </c>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>45672</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>-175</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>45673</v>
+        <v>45669</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>-226</v>
+        <v>-211</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>45674</v>
+        <v>45670</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>-154</v>
+        <v>-371</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>45675</v>
+        <v>45671</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>-306</v>
+        <v>-253</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>45676</v>
+        <v>45672</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>-332</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>45677</v>
+        <v>45673</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>-315</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>45678</v>
+        <v>45674</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>-221</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>45679</v>
+        <v>45675</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>-357</v>
+        <v>-306</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>45680</v>
+        <v>45676</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>-233</v>
+        <v>-332</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>45681</v>
+        <v>45677</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>-167</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>45682</v>
+        <v>45678</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>-221</v>
@@ -940,755 +911,755 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>45683</v>
+        <v>45679</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>-212</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>45684</v>
+        <v>45680</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>-336</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>45685</v>
+        <v>45681</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>-5324</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>45686</v>
+        <v>45682</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>-5442</v>
+        <v>-221</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>45687</v>
+        <v>45683</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>-3833</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>45688</v>
+        <v>45684</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>-4530</v>
+        <v>-336</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>45689</v>
+        <v>45685</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>-268</v>
+        <v>-5324</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>45690</v>
+        <v>45686</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>-118</v>
+        <v>-5442</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>45691</v>
+        <v>45687</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>-114</v>
+        <v>-3833</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>45692</v>
+        <v>45688</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>-123</v>
+        <v>-4530</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <v>45693</v>
+        <v>45689</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>-87</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>45694</v>
+        <v>45690</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>-95</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <v>45695</v>
+        <v>45691</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>-113</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <v>45696</v>
+        <v>45692</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E40">
-        <v>-1263</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <v>45697</v>
+        <v>45693</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>-2249</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <v>45698</v>
+        <v>45694</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>-1109</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <v>45699</v>
+        <v>45695</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>-2221</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <v>45700</v>
+        <v>45696</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>-6252</v>
+        <v>-1263</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <v>45701</v>
+        <v>45697</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>-1472</v>
+        <v>-2249</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <v>45702</v>
+        <v>45698</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>-2286</v>
+        <v>-1109</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
-        <v>45703</v>
+        <v>45699</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E47">
-        <v>-529</v>
+        <v>-2221</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <v>45704</v>
+        <v>45700</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E48">
-        <v>-1276</v>
+        <v>-6252</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
-        <v>45705</v>
+        <v>45701</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>-894</v>
+        <v>-1472</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <v>45706</v>
+        <v>45702</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E50">
-        <v>-100</v>
+        <v>-2286</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <v>45707</v>
+        <v>45703</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E51">
-        <v>-3832</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
-        <v>45708</v>
+        <v>45704</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>-3536</v>
+        <v>-1276</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <v>45709</v>
+        <v>45705</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>-366</v>
+        <v>-894</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <v>45710</v>
+        <v>45706</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>-303</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <v>45711</v>
+        <v>45707</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>-1143</v>
+        <v>-3832</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
-        <v>45712</v>
+        <v>45708</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>-3522</v>
+        <v>-3536</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
-        <v>45713</v>
+        <v>45709</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>-916</v>
+        <v>-366</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
-        <v>45714</v>
+        <v>45710</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>-1440</v>
+        <v>-303</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
-        <v>45715</v>
+        <v>45711</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>-583</v>
+        <v>-1143</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
-        <v>45716</v>
+        <v>45712</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>-1838</v>
+        <v>-3522</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
-        <v>45717</v>
+        <v>45713</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>-503</v>
+        <v>-916</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
-        <v>45718</v>
+        <v>45714</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E62">
-        <v>-577</v>
+        <v>-1440</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
-        <v>45719</v>
+        <v>45715</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>-1012</v>
+        <v>-583</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
-        <v>45720</v>
+        <v>45716</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>-885</v>
+        <v>-1838</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
-        <v>45721</v>
+        <v>45717</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>-2699</v>
+        <v>-503</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
-        <v>45722</v>
+        <v>45718</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>-2126</v>
+        <v>-577</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
-        <v>45725</v>
+        <v>45719</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>-6765</v>
+        <v>-1012</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
-        <v>45726</v>
+        <v>45720</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E68">
-        <v>-7248</v>
+        <v>-885</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E69">
-        <v>-6244</v>
+        <v>-2699</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
-        <v>45724</v>
+        <v>45722</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E70">
-        <v>-3232</v>
+        <v>-2126</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
-        <v>45723</v>
+        <v>45725</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>-8214</v>
+        <v>-6765</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
-        <v>45724</v>
+        <v>45726</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>-209</v>
+        <v>-7248</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
-        <v>45661</v>
+        <v>45723</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E73">
-        <v>-517</v>
+        <v>-6244</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
-        <v>45662</v>
+        <v>45724</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E74">
-        <v>-297</v>
+        <v>-3232</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
-        <v>45663</v>
+        <v>45723</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>-366</v>
+        <v>-8214</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
-        <v>45664</v>
+        <v>45724</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E76">
-        <v>-327</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
-        <v>45665</v>
+        <v>45661</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>-169</v>
+        <v>-517</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
-        <v>45666</v>
+        <v>45662</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>-315</v>
+        <v>-297</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
-        <v>45667</v>
+        <v>45663</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>-339</v>
+        <v>-366</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
-        <v>45668</v>
+        <v>45664</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>-327</v>
@@ -1696,2425 +1667,2579 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
-        <v>45669</v>
+        <v>45665</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>-240</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
-        <v>45670</v>
+        <v>45666</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>-346</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
-        <v>45671</v>
+        <v>45667</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>-240</v>
+        <v>-339</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
-        <v>45672</v>
+        <v>45668</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>-177</v>
+        <v>-327</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
-        <v>45673</v>
+        <v>45669</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>-258</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
-        <v>45545</v>
+        <v>45670</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>-1552</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
-        <v>45464</v>
+        <v>45671</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>-2230</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
-        <v>45311</v>
+        <v>45672</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>-639</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
-        <v>45501</v>
+        <v>45673</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <v>-275</v>
+        <v>-258</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
-        <v>45446</v>
+        <v>45545</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>-236</v>
+        <v>-1552</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
-        <v>45631</v>
+        <v>45464</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>-379</v>
+        <v>-2230</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
-        <v>45456</v>
+        <v>45311</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>-119</v>
+        <v>-639</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
-        <v>45419</v>
+        <v>45501</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>-171</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
-        <v>45630</v>
+        <v>45446</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>-342</v>
+        <v>-236</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
-        <v>45499</v>
+        <v>45631</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>-317</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
-        <v>45406</v>
+        <v>45456</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>-308</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
-        <v>45642</v>
+        <v>45419</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>-211</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
-        <v>45376</v>
+        <v>45630</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>-346</v>
+        <v>-342</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
-        <v>45617</v>
+        <v>45499</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>-237</v>
+        <v>-317</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
-        <v>45455</v>
+        <v>45406</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>-196</v>
+        <v>-308</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
-        <v>45407</v>
+        <v>45642</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>-232</v>
+        <v>-211</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
-        <v>45454</v>
+        <v>45376</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
       </c>
       <c r="E102">
-        <v>-134</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
-        <v>45307</v>
+        <v>45617</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
       </c>
       <c r="E103">
-        <v>-331</v>
+        <v>-237</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
-        <v>45582</v>
+        <v>45455</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
       </c>
       <c r="E104">
-        <v>-328</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
       </c>
       <c r="E105">
-        <v>-349</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
-        <v>45464</v>
+        <v>45454</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>-231</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
-        <v>45490</v>
+        <v>45307</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>-346</v>
+        <v>-331</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
-        <v>45633</v>
+        <v>45582</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>-242</v>
+        <v>-328</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
-        <v>45310</v>
+        <v>45405</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>-148</v>
+        <v>-349</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
-        <v>45380</v>
+        <v>45464</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>-234</v>
+        <v>-231</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
-        <v>45593</v>
+        <v>45490</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>-230</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
-        <v>45544</v>
+        <v>45633</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>-317</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
-        <v>45607</v>
+        <v>45310</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>-5313</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
-        <v>45522</v>
+        <v>45380</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>-5464</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
-        <v>45334</v>
+        <v>45593</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>-3846</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
-        <v>45319</v>
+        <v>45544</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>-4565</v>
+        <v>-317</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
-        <v>45491</v>
+        <v>45607</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E117">
-        <v>-295</v>
+        <v>-5313</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
-        <v>45614</v>
+        <v>45522</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E118">
-        <v>-126</v>
+        <v>-5464</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
-        <v>45499</v>
+        <v>45334</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E119">
-        <v>-115</v>
+        <v>-3846</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="2">
-        <v>45323</v>
+        <v>45319</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E120">
-        <v>-123</v>
+        <v>-4565</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="2">
-        <v>45550</v>
+        <v>45491</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E121">
-        <v>-121</v>
+        <v>-295</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
-        <v>45357</v>
+        <v>45614</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E122">
-        <v>-115</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
-        <v>45457</v>
+        <v>45499</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E123">
-        <v>-128</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
-        <v>45487</v>
+        <v>45323</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E124">
-        <v>-1272</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="2">
-        <v>45330</v>
+        <v>45550</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E125">
-        <v>-2230</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="2">
-        <v>45537</v>
+        <v>45357</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E126">
-        <v>-1145</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="2">
-        <v>45485</v>
+        <v>45457</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E127">
-        <v>-2269</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="2">
-        <v>45601</v>
+        <v>45487</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>-6266</v>
+        <v>-1272</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="2">
-        <v>45498</v>
+        <v>45330</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E129">
-        <v>-1496</v>
+        <v>-2230</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="2">
-        <v>45399</v>
+        <v>45537</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>-2304</v>
+        <v>-1145</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="2">
-        <v>45399</v>
+        <v>45485</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E131">
-        <v>-570</v>
+        <v>-2269</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="2">
-        <v>45639</v>
+        <v>45601</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E132">
-        <v>-1298</v>
+        <v>-6266</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="2">
-        <v>45632</v>
+        <v>45498</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E133">
-        <v>-884</v>
+        <v>-1496</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="2">
-        <v>45359</v>
+        <v>45399</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E134">
-        <v>-99</v>
+        <v>-2304</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
-        <v>45574</v>
+        <v>45399</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E135">
-        <v>-3869</v>
+        <v>-570</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
-        <v>45481</v>
+        <v>45639</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E136">
-        <v>-3559</v>
+        <v>-1298</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
-        <v>45605</v>
+        <v>45632</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E137">
-        <v>-395</v>
+        <v>-884</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
-        <v>45315</v>
+        <v>45359</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>-290</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
-        <v>45419</v>
+        <v>45574</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>-1139</v>
+        <v>-3869</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
-        <v>45310</v>
+        <v>45481</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>-3551</v>
+        <v>-3559</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
-        <v>45500</v>
+        <v>45605</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>-956</v>
+        <v>-395</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
-        <v>45629</v>
+        <v>45315</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>-1426</v>
+        <v>-290</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
-        <v>45430</v>
+        <v>45419</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>-606</v>
+        <v>-1139</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
-        <v>45657</v>
+        <v>45310</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E144">
-        <v>-1866</v>
+        <v>-3551</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
-        <v>45451</v>
+        <v>45500</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>-511</v>
+        <v>-956</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
-        <v>45398</v>
+        <v>45629</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>-580</v>
+        <v>-1426</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
-        <v>45472</v>
+        <v>45430</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E147">
-        <v>-1055</v>
+        <v>-606</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
-        <v>45639</v>
+        <v>45657</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E148">
-        <v>-928</v>
+        <v>-1866</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
-        <v>45305</v>
+        <v>45451</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E149">
-        <v>-2713</v>
+        <v>-511</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
-        <v>45340</v>
+        <v>45398</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E150">
-        <v>-2165</v>
+        <v>-580</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
-        <v>45603</v>
+        <v>45472</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E151">
-        <v>-6773</v>
+        <v>-1055</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
-        <v>45388</v>
+        <v>45639</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E152">
-        <v>-7236</v>
+        <v>-928</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
-        <v>45573</v>
+        <v>45305</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E153">
-        <v>-6235</v>
+        <v>-2713</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
-        <v>45615</v>
+        <v>45340</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E154">
-        <v>-3213</v>
+        <v>-2165</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
-        <v>45612</v>
+        <v>45603</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E155">
-        <v>-8236</v>
+        <v>-6773</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
-        <v>45439</v>
+        <v>45388</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>-225</v>
+        <v>-7236</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
-        <v>45562</v>
+        <v>45573</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
       </c>
       <c r="D157" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E157">
-        <v>-510</v>
+        <v>-6235</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
-        <v>45392</v>
+        <v>45615</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E158">
-        <v>-267</v>
+        <v>-3213</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
-        <v>45513</v>
+        <v>45612</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
       </c>
       <c r="D159" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E159">
-        <v>-390</v>
+        <v>-8236</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
-        <v>45478</v>
+        <v>45439</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
       </c>
       <c r="D160" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E160">
-        <v>-347</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
-        <v>45360</v>
+        <v>45562</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>-144</v>
+        <v>-510</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
-        <v>45524</v>
+        <v>45392</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>-345</v>
+        <v>-267</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
-        <v>45338</v>
+        <v>45513</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>-341</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
-        <v>45410</v>
+        <v>45478</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>-332</v>
+        <v>-347</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
-        <v>45445</v>
+        <v>45360</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>-205</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
-        <v>45452</v>
+        <v>45524</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>-368</v>
+        <v>-345</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="2">
-        <v>45586</v>
+        <v>45338</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>-213</v>
+        <v>-341</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
-        <v>45527</v>
+        <v>45410</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>-183</v>
+        <v>-332</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
-        <v>45581</v>
+        <v>45445</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>-248</v>
+        <v>-205</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
-        <v>45163</v>
+        <v>45452</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>-1521</v>
+        <v>-368</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
-        <v>45201</v>
+        <v>45586</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D171" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>-2249</v>
+        <v>-213</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
-        <v>45113</v>
+        <v>45527</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D172" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>-605</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
-        <v>45232</v>
+        <v>45581</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>-311</v>
+        <v>-248</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
-        <v>45258</v>
+        <v>45163</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>-254</v>
+        <v>-1521</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
-        <v>45154</v>
+        <v>45201</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>-385</v>
+        <v>-2249</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="2">
-        <v>45153</v>
+        <v>45113</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>-91</v>
+        <v>-605</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="2">
-        <v>45284</v>
+        <v>45232</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>-172</v>
+        <v>-311</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="2">
-        <v>45165</v>
+        <v>45258</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>-318</v>
+        <v>-254</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
-        <v>45136</v>
+        <v>45154</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>-352</v>
+        <v>-385</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
-        <v>45276</v>
+        <v>45153</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>-354</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
-        <v>45199</v>
+        <v>45284</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>-229</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
-        <v>45282</v>
+        <v>45165</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>-367</v>
+        <v>-318</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
-        <v>45180</v>
+        <v>45136</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>-268</v>
+        <v>-352</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
-        <v>45108</v>
+        <v>45276</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>-148</v>
+        <v>-354</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
-        <v>45231</v>
+        <v>45199</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>-252</v>
+        <v>-229</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
-        <v>45158</v>
+        <v>45282</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
       </c>
       <c r="E186">
-        <v>-160</v>
+        <v>-367</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="2">
-        <v>45161</v>
+        <v>45180</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
       </c>
       <c r="E187">
-        <v>-349</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
-        <v>45256</v>
+        <v>45108</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
       </c>
       <c r="E188">
-        <v>-314</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
-        <v>45166</v>
+        <v>45231</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
       </c>
       <c r="E189">
-        <v>-353</v>
+        <v>-252</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
-        <v>45244</v>
+        <v>45158</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>-232</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
-        <v>45266</v>
+        <v>45161</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>-378</v>
+        <v>-349</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
-        <v>45145</v>
+        <v>45256</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>-233</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
-        <v>45201</v>
+        <v>45166</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>-168</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
-        <v>45120</v>
+        <v>45244</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>-242</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
-        <v>45243</v>
+        <v>45266</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>-252</v>
+        <v>-378</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
-        <v>45197</v>
+        <v>45145</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>-324</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
-        <v>45123</v>
+        <v>45201</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>-5306</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
-        <v>45142</v>
+        <v>45120</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>-5469</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
-        <v>45254</v>
+        <v>45243</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>-3841</v>
+        <v>-252</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
-        <v>45230</v>
+        <v>45197</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>-4546</v>
+        <v>-324</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
-        <v>45260</v>
+        <v>45123</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E201">
-        <v>-296</v>
+        <v>-5306</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
-        <v>45220</v>
+        <v>45142</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E202">
-        <v>-120</v>
+        <v>-5469</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" s="2">
-        <v>45187</v>
+        <v>45254</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E203">
-        <v>-99</v>
+        <v>-3841</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" s="2">
-        <v>45267</v>
+        <v>45230</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E204">
-        <v>-123</v>
+        <v>-4546</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
-        <v>45269</v>
+        <v>45260</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E205">
-        <v>-106</v>
+        <v>-296</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
-        <v>45231</v>
+        <v>45220</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E206">
-        <v>-107</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="2">
-        <v>45153</v>
+        <v>45187</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E207">
-        <v>-131</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="2">
-        <v>45197</v>
+        <v>45267</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E208">
-        <v>-1313</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="2">
-        <v>45151</v>
+        <v>45269</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E209">
-        <v>-2254</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="2">
-        <v>45195</v>
+        <v>45231</v>
       </c>
       <c r="C210" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E210">
-        <v>-1158</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="2">
-        <v>45179</v>
+        <v>45153</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D211" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E211">
-        <v>-2288</v>
+        <v>-131</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="2">
-        <v>45139</v>
+        <v>45197</v>
       </c>
       <c r="C212" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D212" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>-6281</v>
+        <v>-1313</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="2">
-        <v>45211</v>
+        <v>45151</v>
       </c>
       <c r="C213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D213" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E213">
-        <v>-1449</v>
+        <v>-2254</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="2">
-        <v>45214</v>
+        <v>45195</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D214" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>-2276</v>
+        <v>-1158</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="2">
-        <v>45252</v>
+        <v>45179</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D215" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E215">
-        <v>-557</v>
+        <v>-2288</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="2">
-        <v>45279</v>
+        <v>45139</v>
       </c>
       <c r="C216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D216" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E216">
-        <v>-1283</v>
+        <v>-6281</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="2">
-        <v>45160</v>
+        <v>45211</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E217">
-        <v>-914</v>
+        <v>-1449</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="2">
-        <v>45197</v>
+        <v>45214</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D218" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E218">
-        <v>-94</v>
+        <v>-2276</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" s="2">
-        <v>45156</v>
+        <v>45252</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E219">
-        <v>-3867</v>
+        <v>-557</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" s="2">
-        <v>45275</v>
+        <v>45279</v>
       </c>
       <c r="C220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>-3524</v>
+        <v>-1283</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" s="2">
-        <v>45147</v>
+        <v>45160</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>-384</v>
+        <v>-914</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" s="2">
-        <v>45181</v>
+        <v>45197</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>-264</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" s="2">
-        <v>45267</v>
+        <v>45156</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>-1131</v>
+        <v>-3867</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" s="2">
-        <v>45218</v>
+        <v>45275</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E224">
-        <v>-3553</v>
+        <v>-3524</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225" s="2">
-        <v>45227</v>
+        <v>45147</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>-965</v>
+        <v>-384</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226" s="2">
-        <v>45139</v>
+        <v>45181</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>-1442</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="2">
-        <v>45247</v>
+        <v>45267</v>
       </c>
       <c r="C227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D227" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>-598</v>
+        <v>-1131</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" s="2">
-        <v>45279</v>
+        <v>45218</v>
       </c>
       <c r="C228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E228">
-        <v>-1892</v>
+        <v>-3553</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229" s="2">
-        <v>45152</v>
+        <v>45227</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
       </c>
       <c r="D229" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>-482</v>
+        <v>-965</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B230" s="2">
-        <v>45250</v>
+        <v>45139</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E230">
-        <v>-574</v>
+        <v>-1442</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231" s="2">
-        <v>45137</v>
+        <v>45247</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
       </c>
       <c r="D231" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E231">
-        <v>-1065</v>
+        <v>-598</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232" s="2">
-        <v>45281</v>
+        <v>45279</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
       </c>
       <c r="D232" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E232">
-        <v>-938</v>
+        <v>-1892</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233" s="2">
-        <v>45156</v>
+        <v>45152</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D233" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E233">
-        <v>-2731</v>
+        <v>-482</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B234" s="2">
-        <v>45233</v>
+        <v>45250</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D234" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E234">
-        <v>-2146</v>
+        <v>-574</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235" s="2">
-        <v>45250</v>
+        <v>45137</v>
       </c>
       <c r="C235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E235">
-        <v>-6796</v>
+        <v>-1065</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236" s="2">
-        <v>45203</v>
+        <v>45281</v>
       </c>
       <c r="C236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D236" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E236">
-        <v>-7247</v>
+        <v>-938</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237" s="2">
-        <v>45243</v>
+        <v>45156</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D237" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E237">
-        <v>-6267</v>
+        <v>-2731</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B238" s="2">
-        <v>45145</v>
+        <v>45233</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D238" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E238">
-        <v>-3230</v>
+        <v>-2146</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B239" s="2">
-        <v>45127</v>
+        <v>45250</v>
       </c>
       <c r="C239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D239" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E239">
-        <v>-8227</v>
+        <v>-6796</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240" s="2">
-        <v>45264</v>
+        <v>45203</v>
       </c>
       <c r="C240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D240" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E240">
-        <v>-255</v>
+        <v>-7247</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" s="2">
-        <v>45160</v>
+        <v>45243</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
       </c>
       <c r="D241" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E241">
-        <v>-502</v>
+        <v>-6267</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" s="2">
-        <v>45250</v>
+        <v>45145</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
       </c>
       <c r="D242" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E242">
-        <v>-288</v>
+        <v>-3230</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" s="2">
-        <v>45263</v>
+        <v>45127</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
       </c>
       <c r="D243" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E243">
-        <v>-357</v>
+        <v>-8227</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" s="2">
-        <v>45284</v>
+        <v>45264</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
       </c>
       <c r="D244" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E244">
-        <v>-371</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" s="2">
-        <v>45215</v>
+        <v>45160</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>-176</v>
+        <v>-502</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" s="2">
-        <v>45138</v>
+        <v>45250</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>-346</v>
+        <v>-288</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" s="2">
-        <v>45199</v>
+        <v>45263</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E247">
-        <v>-324</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B248" s="2">
-        <v>45235</v>
+        <v>45284</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>-318</v>
+        <v>-371</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" s="2">
-        <v>45183</v>
+        <v>45215</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>-255</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" s="2">
-        <v>45111</v>
+        <v>45138</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D250" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>-377</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" s="2">
-        <v>45160</v>
+        <v>45199</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D251" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>-271</v>
+        <v>-324</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" s="2">
-        <v>45122</v>
+        <v>45235</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>-167</v>
+        <v>-318</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253" s="2">
+        <v>45183</v>
+      </c>
+      <c r="C253" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="2">
+        <v>45111</v>
+      </c>
+      <c r="C254" t="s">
+        <v>27</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+      <c r="E254">
+        <v>-377</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C255" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255">
+        <v>-271</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256" s="2">
+        <v>45122</v>
+      </c>
+      <c r="C256" t="s">
+        <v>27</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B257" s="2">
         <v>45289</v>
       </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>5</v>
-      </c>
-      <c r="E253">
+      <c r="C257" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+      <c r="E257">
         <v>-282</v>
       </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>48</v>
+      </c>
+      <c r="H258" s="3">
+        <v>907834.38</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>49</v>
+      </c>
+      <c r="H260" s="3">
+        <v>3908775.59</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>50</v>
+      </c>
+      <c r="H262" s="3">
+        <v>-3000941.21</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>51</v>
+      </c>
+      <c r="H264" s="3">
+        <v>907834.38</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
